--- a/NT_AirPollution.Admin/App_Data/Template/RefundVeirfy1Template.xlsx
+++ b/NT_AirPollution.Admin/App_Data/Template/RefundVeirfy1Template.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\case\Alvin\NT_AirPollution\NT_AirPollution.Admin\App_Data\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA2AD24-9ED3-441B-8502-AFDA44CFEF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F3A906-4F75-417D-BC60-C3C0997E715F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{703045CC-5A85-4ED8-8650-1FC3666ACF0C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{703045CC-5A85-4ED8-8650-1FC3666ACF0C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -93,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,7 +114,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="標楷體"/>
       <family val="4"/>
@@ -125,13 +122,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -362,105 +352,93 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,26 +455,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="DATA"/>
-      <sheetName val="現用報表A"/>
-      <sheetName val="現用報表A附件"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -802,157 +760,157 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="59.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-    </row>
-    <row r="8" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="9" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-    </row>
-    <row r="10" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-    </row>
-    <row r="12" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-    </row>
-    <row r="13" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-    </row>
-    <row r="15" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="17"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -963,12 +921,12 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NT_AirPollution.Admin/App_Data/Template/RefundVeirfy1Template.xlsx
+++ b/NT_AirPollution.Admin/App_Data/Template/RefundVeirfy1Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\case\Alvin\NT_AirPollution\NT_AirPollution.Admin\App_Data\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F3A906-4F75-417D-BC60-C3C0997E715F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66EB129-A97F-470E-9257-E5E4EBC396A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{703045CC-5A85-4ED8-8650-1FC3666ACF0C}"/>
   </bookViews>
@@ -404,6 +404,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -433,12 +439,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,13 +770,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
@@ -791,8 +791,8 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
@@ -806,24 +806,24 @@
       <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
@@ -833,28 +833,28 @@
       <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
@@ -871,49 +871,55 @@
       <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:5" ht="270" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
@@ -921,12 +927,6 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
